--- a/biology/Botanique/Grammitis/Grammitis.xlsx
+++ b/biology/Botanique/Grammitis/Grammitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grammitis est un genre de fougères de la famille des Polypodiaceae. Il comprend plus de 700 espèces répandues dans les régions tropicales du monde entier.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes d'une hauteur souvent inférieure à 15 cm, rarement plus de 50 cm. Le limbe foliaire est pinnatifide, simple à une seule penne ou rarement plus divisé, hérissé ou glabre, sans glande naturelle, ou glandulaire. Les soies sont brun rougeâtre foncé à transparentes. Les veines sont simples ou à une fourche (à nervures pennées) dans chaque segment, libres, se terminant par des hydathodes adaxialement. Les sores sont ronds, ovales ou allongés, ne formant pas de coenosorus, non enfoncés ; les paraphyses sont absentes ou présentes en fonction de l'espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes d'une hauteur souvent inférieure à 15 cm, rarement plus de 50 cm. Le limbe foliaire est pinnatifide, simple à une seule penne ou rarement plus divisé, hérissé ou glabre, sans glande naturelle, ou glandulaire. Les soies sont brun rougeâtre foncé à transparentes. Les veines sont simples ou à une fourche (à nervures pennées) dans chaque segment, libres, se terminant par des hydathodes adaxialement. Les sores sont ronds, ovales ou allongés, ne formant pas de coenosorus, non enfoncés ; les paraphyses sont absentes ou présentes en fonction de l'espèce.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit par le botaniste suédois Olof Peter Swartz en 1801, qui le nomme Grammitis, du grec gramme, ligne, faisant allusion aux sores allongés de quelques espèces[2].
-Selon Plants of the World online (POWO)                (19 mars 2021)[3], les genres suivants sont inclus dans le genre Grammitis et sont donc synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit par le botaniste suédois Olof Peter Swartz en 1801, qui le nomme Grammitis, du grec gramme, ligne, faisant allusion aux sores allongés de quelques espèces.
+Selon Plants of the World online (POWO)                (19 mars 2021), les genres suivants sont inclus dans le genre Grammitis et sont donc synonymes :
 Acrosorus Copel.
 Adenophorus Gaudich.
 Alansmia M.Kessler, Moguel, Sundue &amp; Labiak
@@ -619,7 +635,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Grammitis hookeri
@@ -627,7 +645,7 @@
 			Grammitis diminuta
 			Grammitis wattsii
 			Grammitis tenuisecta
-Selon Plants of the World online (POWO)                (19 mars 2021)[3] :
+Selon Plants of the World online (POWO)                (19 mars 2021) :
 Grammitis abebaion (Alderw.) Christenh.
 Grammitis achilleifolia (Kaulf.) R.M.Tryon &amp; A.F.Tryon
 Grammitis acrosora (A.Rojas) Christenh.
